--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-15/Sample-15.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-15/Sample-15.xlsx
@@ -920,7 +920,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a6cf5b78-796f-497b-8c07-5945780dece2}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0da3e297-51bf-4d4b-af48-8b366d68c05e}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -937,7 +937,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c77896d8-7e15-4290-812c-c0fc7056ced8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{eabd3441-a5ab-4042-83fd-b1371fd029d2}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -954,7 +954,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{16f68bb5-9a33-481a-ab2a-6b87619f0f99}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9e0db1a4-c8c4-42b2-87d5-4b05b7f332ef}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -971,7 +971,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b9e0efdc-db73-4b56-bd1a-6fa83fb912f9}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9581ea43-36dc-474a-9019-07c1fc000990}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -988,7 +988,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0a1bdbba-0a2f-4199-8615-d207d89d774b}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6c29960d-ee29-4101-b49e-2818c43f44dc}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1005,7 +1005,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{33075432-1d75-4ec0-923d-6b328679cd95}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{64612914-7f23-49c6-b872-ea6bfc4e09c8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1022,7 +1022,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{4ff9d670-2a48-4f3c-beb5-adb6be551457}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b7c4fa27-6e9d-4ddd-9b04-82443ede1882}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1039,7 +1039,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c17b08e3-fe18-47b2-8747-bac3de2c4367}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2773de40-d056-4d67-8d63-cca4cb98c6a9}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1056,7 +1056,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d7bd6570-be04-412b-b9c4-5fc699ba3ab0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{817e1a89-9e82-4f8c-81af-2c3a08e41fc5}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1073,7 +1073,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{f5fc94e8-1e9a-4fbf-9ccb-3492cf0b6d81}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6b0d5d88-8399-40ee-a775-7db9186e93f0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1090,7 +1090,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6c0426d9-436d-46e4-9c6a-cc7f93291334}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{830b2625-449b-48b6-b0cc-7e12989b24f1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1107,7 +1107,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{2d1721e2-713f-4ac3-a198-70aabd3f67b0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{76ef71cb-909e-4b8f-93ae-e07c50be0c51}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1124,7 +1124,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{7e841f34-90f4-4633-ac97-0a7d44f22ef1}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8a08840a-3153-470f-967b-120253484014}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1141,7 +1141,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{6483dd16-f819-4334-85ad-c1c87c9e73c6}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e53ada60-14ea-4823-a2ba-a1dd5b672825}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1158,7 +1158,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ce7edabe-af00-4b68-b433-9e861dfa0ad5}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{9857df6b-00dd-4132-8930-9772107f5a4a}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1175,7 +1175,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{48eeb45b-b21d-428c-8ec5-8cb68e0d3d84}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{827e79ab-3ffa-40f6-a0ab-4bcfe97bc0be}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
